--- a/biology/Zoologie/Eunica_volumna/Eunica_volumna.xlsx
+++ b/biology/Zoologie/Eunica_volumna/Eunica_volumna.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Eunica volumna est une  espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Eunica.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica volumna a été décrite par le naturaliste français Jean-Baptiste Godart en 1824 sous le nom initial de Nymphalis volumna[1].
-Noms vernaculaires
-Eunica  volumna se nomme Blue-celled Purplewing en anglais[2].
-Sous-espèces
- Eunica volumna volumna présent au Brésil.
- Eunica volumna celma (Hewitson, 1852);  présent au Brésil, en Colombie et en Bolivie.
- Eunica volumna venusia (C. &amp; R. Felder, 1867);  présent au Costa Rica, dans le nord de la Colombie et en Guyane[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica volumna a été décrite par le naturaliste français Jean-Baptiste Godart en 1824 sous le nom initial de Nymphalis volumna.
+</t>
         </is>
       </c>
     </row>
@@ -544,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au dessus des ailes antérieures noir et des ailes postérieures bleu  vif métallisé.
-Le revers est de couleur violine plus ou moins foncé avec aux ailes postérieures deux gros ocelles doubles pupillés d'argent.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eunica  volumna se nomme Blue-celled Purplewing en anglais.
 </t>
         </is>
       </c>
@@ -576,13 +590,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Période de vol
-Plantes hôtes</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica volumna volumna présent au Brésil.
+ Eunica volumna celma (Hewitson, 1852);  présent au Brésil, en Colombie et en Bolivie.
+ Eunica volumna venusia (C. &amp; R. Felder, 1867);  présent au Costa Rica, dans le nord de la Colombie et en Guyane.</t>
         </is>
       </c>
     </row>
@@ -607,17 +628,87 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au dessus des ailes antérieures noir et des ailes postérieures bleu  vif métallisé.
+Le revers est de couleur violine plus ou moins foncé avec aux ailes postérieures deux gros ocelles doubles pupillés d'argent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eunica_volumna</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_volumna</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Eunica volumna est présent au Costa Rica, au Brésil, en Colombie, en Bolivie et en Guyane[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Eunica volumna est présent au Costa Rica, au Brésil, en Colombie, en Bolivie et en Guyane.
 Sur les autres projets Wikimedia :
 Eunica volumna, sur Wikimedia CommonsEunica volumna, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eunica_volumna</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eunica_volumna</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
